--- a/Running projects/Food Court North Walk/323 Invoice for supply of Air Curtian.xlsx
+++ b/Running projects/Food Court North Walk/323 Invoice for supply of Air Curtian.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5247F3C-47C2-4BCB-9C8A-1D13B0AB352B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878B47CA-049E-4ABB-ACD7-3A5A075FD8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>S. #</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Total Amount Rs</t>
   </si>
   <si>
-    <t>Job</t>
-  </si>
-  <si>
     <t>Nos</t>
   </si>
   <si>
@@ -77,18 +74,12 @@
     <t>323</t>
   </si>
   <si>
-    <t xml:space="preserve">Supply of Rectangular M.S Pipe 6 x 2 x 14 Rft with M.S Bracket, rawal bolt etc </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Rate</t>
   </si>
   <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>Providing of Photo senser for auto ON / OFF including control / power wiring / termination for entring and exiting door.</t>
-  </si>
-  <si>
     <t>Supply of primer paint, epoxy primer and epoxy paint on rectangular pipe as instructed.</t>
   </si>
   <si>
@@ -99,6 +90,18 @@
   </si>
   <si>
     <t>Block-C North Nazimabad Karachi Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supply of Rectangular M.S Pipe 6 x 2 x 16 Rft with M.S Bracket, rawal bolt etc </t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Providing of magnetic switch for auto ON / OFF including control.</t>
   </si>
 </sst>
 </file>
@@ -886,16 +889,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="3" customWidth="1"/>
     <col min="7" max="8" width="8.85546875" style="2"/>
@@ -905,30 +907,30 @@
   <sheetData>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="27">
-        <v>45288</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -937,16 +939,16 @@
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>13</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:6" s="8" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -964,7 +966,7 @@
     </row>
     <row r="13" spans="1:6" s="8" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -986,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -997,10 +999,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D15" s="17">
         <v>5</v>
@@ -1018,10 +1020,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D16" s="17">
         <v>5</v>
@@ -1039,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1048,13 +1050,13 @@
     </row>
     <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="17">
         <v>4</v>
@@ -1069,13 +1071,13 @@
     </row>
     <row r="19" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="17">
         <v>3</v>
@@ -1093,10 +1095,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="17">
         <v>5</v>
@@ -1134,7 +1136,7 @@
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="5"/>
       <c r="I23" s="10"/>
